--- a/data/trans_orig/ED_ADU-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>46.99497113883133</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50.41893890246516</v>
+        <v>50.41893890246515</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>46.18004140869965</v>
@@ -684,7 +684,7 @@
         <v>51.70486689934555</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>45.07228230806184</v>
+        <v>45.07228230806183</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>47.22146303256699</v>
@@ -693,7 +693,7 @@
         <v>48.38064945386309</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>51.0815183208922</v>
+        <v>51.08151832089221</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>42.6499319182205</v>
+        <v>42.54888485352478</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>45.03139335228002</v>
+        <v>45.08142308945012</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45.67296142958785</v>
+        <v>45.68827963629895</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48.63291099591394</v>
+        <v>48.70322637546372</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>44.8165227790262</v>
+        <v>44.79700436938831</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>46.77609770947401</v>
+        <v>46.65192342704213</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>48.21211502947427</v>
+        <v>48.25559539110967</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>50.4228986102186</v>
+        <v>50.50821537104117</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>44.13959462158054</v>
+        <v>44.14362082823143</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46.17385819554487</v>
+        <v>46.32157951414329</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47.29273799872478</v>
+        <v>47.38258773806094</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>50.01200481476076</v>
+        <v>49.90480659519883</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>45.45969851789506</v>
+        <v>45.37476642594317</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>47.843262046894</v>
+        <v>48.03648288334288</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48.49716066970922</v>
+        <v>48.48898656460435</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52.01692864975431</v>
+        <v>52.14356269196726</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>47.67846165220968</v>
+        <v>47.71304091325167</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>49.54885275140975</v>
+        <v>49.54405856210452</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>51.21400786563284</v>
+        <v>51.31807569312911</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>52.95146902740812</v>
+        <v>53.10145704126189</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>46.05872621081824</v>
+        <v>46.04211141878783</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>48.17422914394839</v>
+        <v>48.30566470927634</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49.36383573285634</v>
+        <v>49.47239836488462</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>52.15455232614925</v>
+        <v>52.07414946007343</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>45.54592936392527</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46.67815070701854</v>
+        <v>46.67815070701855</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>45.65906034766807</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>42.32576497428667</v>
+        <v>42.28878399110805</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>42.89614412016285</v>
+        <v>42.91935388385716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>44.35773658333424</v>
+        <v>44.33594791955429</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45.4243059864769</v>
+        <v>45.41749142525391</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>44.51260096308472</v>
+        <v>44.454460901213</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>44.43266234576066</v>
+        <v>44.56936152004947</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>46.73588364618195</v>
+        <v>46.67505883232486</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>48.23951162229795</v>
+        <v>48.45893799575434</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>43.729126641299</v>
+        <v>43.73894627598894</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44.01237363659985</v>
+        <v>44.06321323682263</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45.93888539270046</v>
+        <v>45.92534380087103</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>47.23079184940175</v>
+        <v>47.2727232833517</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>44.65465027036944</v>
+        <v>44.68803515738794</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>45.17157190712537</v>
+        <v>45.22319488304342</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>46.6846512100366</v>
+        <v>46.59386616098993</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>47.96188681002027</v>
+        <v>47.99106327209432</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>46.87574678609512</v>
+        <v>46.83038322579073</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>46.79033064901427</v>
+        <v>46.83170341892703</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>49.22883753593262</v>
+        <v>49.02602316223031</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>50.57561018753586</v>
+        <v>50.63305129948881</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>45.40370674680047</v>
+        <v>45.43984149668223</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>45.60141518787049</v>
+        <v>45.62807144379492</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47.48845192997896</v>
+        <v>47.55502514615701</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>48.95002168800924</v>
+        <v>48.96303573834039</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>46.29531496234709</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>48.77356702195972</v>
+        <v>48.77356702195971</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>45.38446134760945</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>43.21272742420636</v>
+        <v>43.12578032856801</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>42.26954237273891</v>
+        <v>42.2437962698014</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43.38354756037575</v>
+        <v>43.30688756008548</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47.11136547702193</v>
+        <v>47.12524879894675</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>45.01640743736502</v>
+        <v>44.9727686405654</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>45.31386297100707</v>
+        <v>45.29883076300028</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>44.99461368334773</v>
+        <v>44.87026341791731</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>47.48126572908058</v>
+        <v>47.33239740158172</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>44.42864418562107</v>
+        <v>44.45657889849256</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44.21497688239393</v>
+        <v>44.23000238237402</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44.57954697975749</v>
+        <v>44.58328080074289</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>47.73587779992968</v>
+        <v>47.7910861005943</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>45.83843536139033</v>
+        <v>45.73039052616829</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>44.9824890887497</v>
+        <v>44.83665425020904</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45.97121891304212</v>
+        <v>45.8311537314596</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50.2535061686353</v>
+        <v>50.25396634659572</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>47.74777165146192</v>
+        <v>47.66155711391642</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>48.03270614244614</v>
+        <v>47.82155190643023</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>47.70800661859573</v>
+        <v>47.6335195023624</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>50.06396992863828</v>
+        <v>50.02842370415635</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>46.25766213336182</v>
+        <v>46.31672812619611</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>45.99866367816273</v>
+        <v>46.04051486645005</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46.35323930601837</v>
+        <v>46.3883022058378</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>49.75753799246497</v>
+        <v>49.82601619218104</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>41.16753695402255</v>
+        <v>41.15579375166976</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>44.02788547578353</v>
+        <v>44.14296117938223</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45.80956751438544</v>
+        <v>45.69311818519243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47.50070181534571</v>
+        <v>47.60975665828057</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>44.14042150562812</v>
+        <v>44.10658807887791</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>46.89056679095917</v>
+        <v>46.88457109489274</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>47.93077153917368</v>
+        <v>47.82986340531493</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>49.8299367070356</v>
+        <v>49.9278634423153</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>43.05098924518096</v>
+        <v>43.02125341217101</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45.95673706562347</v>
+        <v>45.96275219796146</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47.26223612030676</v>
+        <v>47.20465204691577</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>49.1505552899681</v>
+        <v>49.14658199782487</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>43.4229204756567</v>
+        <v>43.27539491346104</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>46.55408104369646</v>
+        <v>46.54353915511754</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>47.98721362431995</v>
+        <v>47.99806169210247</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>50.21674847128351</v>
+        <v>50.412962867923</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>46.53036911386791</v>
+        <v>46.47188260870615</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>49.40616016839166</v>
+        <v>49.40062781646861</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>50.41666901603971</v>
+        <v>50.31363657563767</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>52.27814604495127</v>
+        <v>52.28096470071432</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>44.6096401500231</v>
+        <v>44.6908896461709</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>47.56777870168525</v>
+        <v>47.60084366847319</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>48.89363485756411</v>
+        <v>48.91451264263763</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>50.96490746500644</v>
+        <v>50.91193885562743</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>47.16037214781937</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>49.40230813333894</v>
+        <v>49.40230813333893</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>42.78194473705052</v>
+        <v>42.82472237840304</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>44.12898017912811</v>
+        <v>44.13310010836286</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45.39887020075681</v>
+        <v>45.43503875518611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47.78291926427102</v>
+        <v>47.76563970905872</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>45.14446792638172</v>
+        <v>45.15223438989366</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>46.42486276402001</v>
+        <v>46.38840177725088</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>47.65755789825478</v>
+        <v>47.56219227452861</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>49.61829104665178</v>
+        <v>49.64845504322599</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>44.13917326168215</v>
+        <v>44.23417865194725</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45.46958108763615</v>
+        <v>45.5263303964002</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46.73985039564035</v>
+        <v>46.73403502535284</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>48.95236289352686</v>
+        <v>48.94453933627693</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>44.01355725993805</v>
+        <v>44.0380482463224</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>45.33882846829081</v>
+        <v>45.38326129264631</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>46.6062244410598</v>
+        <v>46.61347668948154</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49.25669570766238</v>
+        <v>49.25596645807244</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>46.39259333682042</v>
+        <v>46.44170202555343</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>47.6758819525401</v>
+        <v>47.69672832872812</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>48.91776328895158</v>
+        <v>48.91361832385488</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>50.8178009956272</v>
+        <v>50.8861498850961</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>45.03694791913428</v>
+        <v>45.05509725517645</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46.35113148136972</v>
+        <v>46.39557063886974</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47.62531071151127</v>
+        <v>47.59169784040002</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>49.86962761903977</v>
+        <v>49.85200113576888</v>
       </c>
     </row>
     <row r="19">
